--- a/нормалізація.xlsx
+++ b/нормалізація.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
   <si>
     <t>Хрещатик 234</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Петя</t>
-  </si>
-  <si>
-    <t>пр.Вознесения 9</t>
   </si>
   <si>
     <t>Конфеты</t>
@@ -501,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -517,23 +514,24 @@
     <col min="8" max="8" width="20" style="6" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="6" customWidth="1"/>
     <col min="10" max="10" width="13" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
+    <col min="11" max="11" width="11.7109375" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -542,13 +540,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -559,7 +557,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -591,13 +589,13 @@
         <v>28456</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2">
         <v>9</v>
@@ -618,19 +616,19 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
@@ -639,13 +637,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -659,7 +657,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2">
         <v>1837</v>
@@ -694,13 +692,13 @@
         <v>28456</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="2">
         <v>3</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="2">
         <v>9</v>
@@ -717,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2">
         <v>2356</v>
@@ -748,11 +746,11 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>1</v>
@@ -802,8 +800,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>16</v>
+      <c r="F16" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>28456</v>
@@ -873,10 +871,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G21" s="2">
         <v>3</v>
@@ -900,17 +898,17 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>31</v>
+      <c r="E25" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -980,21 +978,21 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G33" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="5" t="s">
-        <v>31</v>
+      <c r="D35" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="4:7">
@@ -1002,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="4:7">
